--- a/data/aa_cleaned_up_serina_min_grp_size_50.xlsx
+++ b/data/aa_cleaned_up_serina_min_grp_size_50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/Wageningen_UR/github/mibig_training_set_build_test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EEF6B5-4BBD-1B41-972C-92C4EB3F4E7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824918E2-EC87-414B-95E1-3ADDA00B784C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="17540" windowHeight="14440" xr2:uid="{4842E814-1572-C544-BEDF-D92B2EFA245C}"/>
+    <workbookView xWindow="4260" yWindow="460" windowWidth="17540" windowHeight="14440" xr2:uid="{4842E814-1572-C544-BEDF-D92B2EFA245C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,8 +421,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -450,8 +458,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A484F7-A651-C849-88AA-42C366A24300}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection sqref="A1:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -782,28 +791,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -921,7 +930,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
@@ -941,7 +950,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
@@ -961,7 +970,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
@@ -981,7 +990,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
         <v>68</v>
@@ -1001,7 +1010,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
@@ -1021,7 +1030,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>79</v>
@@ -1041,7 +1050,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>83</v>
@@ -1055,10 +1064,13 @@
       <c r="F13" t="s">
         <v>85</v>
       </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>102</v>
@@ -1070,12 +1082,12 @@
         <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>105</v>
@@ -1087,12 +1099,12 @@
         <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>92</v>
@@ -1103,13 +1115,10 @@
       <c r="E16" t="s">
         <v>95</v>
       </c>
-      <c r="F16" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
         <v>94</v>
@@ -1123,7 +1132,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
         <v>96</v>
@@ -1137,7 +1146,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>98</v>
@@ -1148,7 +1157,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
         <v>106</v>
@@ -1156,7 +1165,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
         <v>108</v>
@@ -1164,16 +1173,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
       <c r="C23" t="s">
         <v>110</v>
       </c>
@@ -1243,7 +1249,13 @@
         <v>44</v>
       </c>
     </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/aa_cleaned_up_serina_min_grp_size_50.xlsx
+++ b/data/aa_cleaned_up_serina_min_grp_size_50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/Wageningen_UR/github/mibig_training_set_build_test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824918E2-EC87-414B-95E1-3ADDA00B784C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3CA949-E4A0-7244-82C8-F5FD4C8A2908}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="460" windowWidth="17540" windowHeight="14440" xr2:uid="{4842E814-1572-C544-BEDF-D92B2EFA245C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Cysteine</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>Bulky mainly phenyl derivatives</t>
+  </si>
+  <si>
+    <t>lea</t>
   </si>
 </sst>
 </file>
@@ -778,7 +781,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H37"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1084,6 +1087,9 @@
       <c r="F14" t="s">
         <v>91</v>
       </c>
+      <c r="H14" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">

--- a/data/aa_cleaned_up_serina_min_grp_size_50.xlsx
+++ b/data/aa_cleaned_up_serina_min_grp_size_50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/Wageningen_UR/github/mibig_training_set_build_test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3CA949-E4A0-7244-82C8-F5FD4C8A2908}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CE114E-D1B9-C64E-A25E-20F9FAAB5D2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="460" windowWidth="17540" windowHeight="14440" xr2:uid="{4842E814-1572-C544-BEDF-D92B2EFA245C}"/>
+    <workbookView xWindow="8060" yWindow="920" windowWidth="17540" windowHeight="14440" xr2:uid="{4842E814-1572-C544-BEDF-D92B2EFA245C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,9 +381,6 @@
     <t>kyn</t>
   </si>
   <si>
-    <t>Small hydrophilic</t>
-  </si>
-  <si>
     <t>REJECT</t>
   </si>
   <si>
@@ -418,6 +415,9 @@
   </si>
   <si>
     <t>lea</t>
+  </si>
+  <si>
+    <t>Small non-hydrophobic</t>
   </si>
 </sst>
 </file>
@@ -441,12 +441,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -461,9 +467,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A484F7-A651-C849-88AA-42C366A24300}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,28 +802,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -855,7 +862,7 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
@@ -865,7 +872,7 @@
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -888,7 +895,7 @@
         <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -905,7 +912,7 @@
         <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H5" t="s">
         <v>101</v>
@@ -1048,7 +1055,7 @@
         <v>82</v>
       </c>
       <c r="H12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1088,7 +1095,7 @@
         <v>91</v>
       </c>
       <c r="H14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1147,7 +1154,7 @@
         <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1222,7 +1229,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
